--- a/hardware/parts/Parts_not_on_JLC_PCB_LCSC.xlsx
+++ b/hardware/parts/Parts_not_on_JLC_PCB_LCSC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mois\Documents\GitHub\Mercury\hardware\parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3407825D-1633-40ED-BA84-4B1DE445E44B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C130C7-30CC-4415-A00E-D2AFABA0BB6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{635C93A8-F757-4403-BB69-5EECDF350A6D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{635C93A8-F757-4403-BB69-5EECDF350A6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
